--- a/DOCS/Test Cases/TC05- Volunteer Registration.xlsx
+++ b/DOCS/Test Cases/TC05- Volunteer Registration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="8505" tabRatio="417" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="113">
   <si>
     <t>Intput Type</t>
   </si>
@@ -204,36 +204,18 @@
     <t>Postal</t>
   </si>
   <si>
-    <t>TC15.01</t>
-  </si>
-  <si>
     <t>TC05.02</t>
   </si>
   <si>
-    <t>TC15.02</t>
-  </si>
-  <si>
     <t>TC05.03</t>
   </si>
   <si>
-    <t>TC15.03</t>
-  </si>
-  <si>
     <t>TC05.04</t>
   </si>
   <si>
-    <t>TC15.04</t>
-  </si>
-  <si>
     <t>TC05.05</t>
   </si>
   <si>
-    <t>TC15.05</t>
-  </si>
-  <si>
-    <t>TC15.06</t>
-  </si>
-  <si>
     <t>Priorit</t>
   </si>
   <si>
@@ -331,6 +313,48 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Register without health problems</t>
+  </si>
+  <si>
+    <t>Account is removed and volunteer is unable to login again.</t>
+  </si>
+  <si>
+    <t>Delete profile of a free volunter</t>
+  </si>
+  <si>
+    <t>Delete profile of a volunteer who accepted a request and working on that</t>
+  </si>
+  <si>
+    <t>Account is removed and volunteer is unable to login again. Incident resources are updated</t>
+  </si>
+  <si>
+    <t>TC05.06</t>
+  </si>
+  <si>
+    <t>TC05.07</t>
+  </si>
+  <si>
+    <t>TC05.01</t>
+  </si>
+  <si>
+    <t>TC05.08</t>
+  </si>
+  <si>
+    <t>TC05.09</t>
+  </si>
+  <si>
+    <t>TC05.10</t>
+  </si>
+  <si>
+    <t>TC05.11</t>
+  </si>
+  <si>
+    <t>TC05.12</t>
+  </si>
+  <si>
+    <t>TC05.13</t>
   </si>
 </sst>
 </file>
@@ -922,8 +946,8 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -974,7 +998,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>35</v>
@@ -1040,7 +1064,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1329,11 +1353,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1341,17 +1365,16 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="18" width="8.140625" customWidth="1"/>
+    <col min="13" max="18" width="5.5703125" customWidth="1"/>
     <col min="19" max="21" width="6.5703125" customWidth="1"/>
     <col min="22" max="22" width="24.28515625" customWidth="1"/>
   </cols>
@@ -1376,7 +1399,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>13</v>
@@ -1467,644 +1490,697 @@
     </row>
     <row r="4" spans="1:22" ht="36" customHeight="1" thickTop="1">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="S4" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="33" customHeight="1">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="S5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" t="s">
         <v>83</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30.75" customHeight="1">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="S6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" t="s">
         <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="45">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="M7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="S7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" t="s">
         <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
         <v>76</v>
       </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="M8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="S8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" t="s">
         <v>83</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
+      <c r="M9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="30">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
         <v>77</v>
       </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" t="s">
         <v>83</v>
       </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="11" spans="1:22" ht="60">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s">
         <v>83</v>
-      </c>
-      <c r="L9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="60">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="45">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="45">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
+      <c r="M12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="45">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
         <v>77</v>
       </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V13" t="s">
         <v>83</v>
       </c>
-      <c r="K12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" t="s">
+    </row>
+    <row r="14" spans="1:22" ht="30">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="V12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="30">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="C14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2114,6 +2190,46 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="45">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="V16" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
